--- a/SCHOOL/WW.xlsx
+++ b/SCHOOL/WW.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\Wirtschaft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2445257-4E01-4F19-88C3-25425FB6D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9973B-58C8-4727-8A5A-B18CB4A523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fallbeispiel Arbeitsauftrag" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="YZQ1">'Fallbeispiel Arbeitsauftrag'!$FQZ$1</definedName>
+    <definedName name="ZZA1">'Fallbeispiel Arbeitsauftrag'!$FEA$1</definedName>
+    <definedName name="ZZZ1">'Fallbeispiel Arbeitsauftrag'!$FEA$1</definedName>
+    <definedName name="ZZZZZZZ1">'Fallbeispiel Arbeitsauftrag'!$FEA$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Investitionssumme</t>
   </si>
@@ -87,6 +94,159 @@
   </si>
   <si>
     <t>Gewinne</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>Grund für Umwandlung in AG</t>
+  </si>
+  <si>
+    <t>Leichtere Kapitalbeschaffung durch Aktienausgabe</t>
+  </si>
+  <si>
+    <t>Haftungsbeschränkung auf Einlagen der Aktionäre</t>
+  </si>
+  <si>
+    <t>Handelbarkeit der Aktien an der Börse (Flexibilität/Liquidität)</t>
+  </si>
+  <si>
+    <t>Imagegewinn und höheres Vertrauen bei Geschäftspartnern</t>
+  </si>
+  <si>
+    <t>Wachstums- und Expansionsmöglichkeiten durch mehr Kapital</t>
+  </si>
+  <si>
+    <t>Leitungssystem</t>
+  </si>
+  <si>
+    <t>Dualistisches Leitungssystem (Trennung Geschäftsführung und Kontrolle)</t>
+  </si>
+  <si>
+    <t>Vorstand: operative Leitung des Unternehmens</t>
+  </si>
+  <si>
+    <t>Aufsichtsrat: Kontrolle des Vorstands, Bestellung/Abberufung</t>
+  </si>
+  <si>
+    <t>Hauptversammlung: Versammlung der Aktionäre, Grundsatzentscheidungen</t>
+  </si>
+  <si>
+    <t>Organisationsart</t>
+  </si>
+  <si>
+    <t>AG ist eine juristische Person des Privatrechts</t>
+  </si>
+  <si>
+    <t>AG ist eine Kapitalgesellschaft (kapitalorientiert)</t>
+  </si>
+  <si>
+    <t>Eigenkapital ist in Aktien zerlegt</t>
+  </si>
+  <si>
+    <t>Trennung von Eigentum (Aktionäre) und Leitung (Vorstand)</t>
+  </si>
+  <si>
+    <t>Angabe</t>
+  </si>
+  <si>
+    <t>Bilanzposition laut Bilanz</t>
+  </si>
+  <si>
+    <t>Sparstrumpf des Unternehmens</t>
+  </si>
+  <si>
+    <t>Bankguthaben/Kassenbestand (Aktiva)</t>
+  </si>
+  <si>
+    <t>Fertigungsstraße</t>
+  </si>
+  <si>
+    <t>Technische Anlagen und Maschinen (Aktiva)</t>
+  </si>
+  <si>
+    <t>Rentenansprüche der Mitarbeiter gegenüber der Athos AG</t>
+  </si>
+  <si>
+    <t>Pensionsrückstellungen (Passiva)</t>
+  </si>
+  <si>
+    <t>U-Profile im Lager</t>
+  </si>
+  <si>
+    <t>Roh-, Hilfs- und Betriebsstoffe (Aktiva, Vorräte)</t>
+  </si>
+  <si>
+    <t>Darlehen</t>
+  </si>
+  <si>
+    <t>Verbindlichkeiten gegenüber Kreditinstituten (Passiva)</t>
+  </si>
+  <si>
+    <t>Summe der fiktiven Nennwerte der Athos-Stückaktien</t>
+  </si>
+  <si>
+    <t>Gezeichnetes Kapital (Grundkapital) (Passiva)</t>
+  </si>
+  <si>
+    <t>Computer in den Büros der Verwaltung</t>
+  </si>
+  <si>
+    <t>Betriebs- und Geschäftsausstattung (Aktiva)</t>
+  </si>
+  <si>
+    <t>Unbezahlte Ausgangsrechnungen</t>
+  </si>
+  <si>
+    <t>Forderungen (aus Lieferungen und Leistungen) (Aktiva)</t>
+  </si>
+  <si>
+    <t>Mehrerlös bei Aktienausgabe über Nennwert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kapitalrücklage (Passiva)</t>
+  </si>
+  <si>
+    <t>Unbezahlte Eingangsrechnungen</t>
+  </si>
+  <si>
+    <t>Verbindlichkeiten aus Lieferungen und Leistungen (Passiva)</t>
+  </si>
+  <si>
+    <t>Kunststoffgranulat</t>
+  </si>
+  <si>
+    <t>Aufgabe 1</t>
+  </si>
+  <si>
+    <t>Aufgabe 2</t>
+  </si>
+  <si>
+    <t>Aussage</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>Der aktuelle Jahresgewinn entspricht dem Eigenkapital</t>
+  </si>
+  <si>
+    <t>Falsch</t>
+  </si>
+  <si>
+    <t>Bei einer Bilanz sind linke und rechte Bilanzsumme stets identisch</t>
+  </si>
+  <si>
+    <t>Richtig</t>
+  </si>
+  <si>
+    <t>In der Bilanz können die Aufwendungen/Erträge des Jahres abgelesen werden</t>
+  </si>
+  <si>
+    <t>Abschreibungen sind auszahlungswirksam (=führen zu Auszahlungen)</t>
   </si>
 </sst>
 </file>
@@ -96,9 +256,25 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,6 +319,8 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,20 +603,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -446,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -457,7 +635,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -479,7 +657,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -490,12 +668,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -506,7 +684,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -517,7 +695,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -528,7 +706,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -539,7 +717,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -550,12 +728,12 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>1500000</v>
       </c>
@@ -563,7 +741,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>2400000</v>
       </c>
@@ -571,7 +749,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>3000000</v>
       </c>
@@ -579,7 +757,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>3000000</v>
       </c>
@@ -587,7 +765,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>2400000</v>
       </c>
@@ -595,7 +773,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>500000</v>
       </c>
@@ -603,12 +781,12 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -619,7 +797,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -630,7 +808,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -641,7 +819,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -652,7 +830,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -663,7 +841,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f>SUM(B25:B29)</f>
         <v>1600000</v>
@@ -676,4 +854,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E674C-4DA9-481E-8F02-80574FAF97BB}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.77734375" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>